--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB22915-B4BD-4D89-8AC0-275D5416C2EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E09FBB3-39FA-45C8-8061-C9AEE1687428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -59,6 +64,30 @@
   </si>
   <si>
     <t>Overleaf vs local installation</t>
+  </si>
+  <si>
+    <t>#docs</t>
+  </si>
+  <si>
+    <t>Master thesis guide</t>
+  </si>
+  <si>
+    <t>Cover, title and disclaimer pages</t>
+  </si>
+  <si>
+    <t>2019.02.24</t>
+  </si>
+  <si>
+    <t>Chapter 1</t>
+  </si>
+  <si>
+    <t>2019.02.25</t>
+  </si>
+  <si>
+    <t>2019.02.26</t>
+  </si>
+  <si>
+    <t>#reading</t>
   </si>
 </sst>
 </file>
@@ -94,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,18 +406,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -463,7 +493,78 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E09FBB3-39FA-45C8-8061-C9AEE1687428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF10896-2D62-4726-9A33-4D16341FDE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -88,6 +88,39 @@
   </si>
   <si>
     <t>#reading</t>
+  </si>
+  <si>
+    <t>2019.03.02</t>
+  </si>
+  <si>
+    <t>2019.03.03</t>
+  </si>
+  <si>
+    <t>Chapter 2</t>
+  </si>
+  <si>
+    <t>2019.03.04</t>
+  </si>
+  <si>
+    <t>Finishing Chapter 1</t>
+  </si>
+  <si>
+    <t>2019.03.05</t>
+  </si>
+  <si>
+    <t>#paper</t>
+  </si>
+  <si>
+    <t>Abstract for CIEM 2019</t>
+  </si>
+  <si>
+    <t>2019.03.07</t>
+  </si>
+  <si>
+    <t>#jupyter</t>
+  </si>
+  <si>
+    <t>Chapter one math</t>
   </si>
 </sst>
 </file>
@@ -406,11 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +600,91 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF10896-2D62-4726-9A33-4D16341FDE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D9374-0478-4C0C-9D6D-9F40006CCC44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Chapter one math</t>
+  </si>
+  <si>
+    <t>2019.03.09</t>
+  </si>
+  <si>
+    <t>Speed triangles</t>
   </si>
 </sst>
 </file>
@@ -439,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,6 +691,57 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D9374-0478-4C0C-9D6D-9F40006CCC44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036197FF-36AA-433A-8D61-DE6793BB22BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Speed triangles</t>
+  </si>
+  <si>
+    <t>2019.03.17</t>
+  </si>
+  <si>
+    <t>Hub calculations</t>
   </si>
 </sst>
 </file>
@@ -162,9 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,11 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +542,7 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -554,7 +559,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -571,7 +576,7 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -588,7 +593,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0.5</v>
       </c>
     </row>
@@ -602,7 +607,7 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
@@ -616,7 +621,7 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
@@ -633,7 +638,7 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
@@ -650,7 +655,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
@@ -667,7 +672,7 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
@@ -684,7 +689,7 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
@@ -701,7 +706,7 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
@@ -718,7 +723,7 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
@@ -727,7 +732,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -735,11 +740,28 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036197FF-36AA-433A-8D61-DE6793BB22BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B412046C-CD5D-45E9-8E00-7B91B2BD3E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Hub calculations</t>
+  </si>
+  <si>
+    <t>2019.03.11</t>
+  </si>
+  <si>
+    <t>2019.03.19</t>
   </si>
 </sst>
 </file>
@@ -450,11 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,15 +758,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1.5</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036197FF-36AA-433A-8D61-DE6793BB22BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E5443-A133-4FE5-AB0D-89A0EFA113B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Hub calculations</t>
+  </si>
+  <si>
+    <t>2019.03.26</t>
+  </si>
+  <si>
+    <t>2019.03.11</t>
   </si>
 </sst>
 </file>
@@ -450,11 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,15 +758,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B412046C-CD5D-45E9-8E00-7B91B2BD3E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E00D2-2AB1-46DE-A07E-CE4B30C5602B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>2019.03.19</t>
+  </si>
+  <si>
+    <t>2019.03.25</t>
   </si>
 </sst>
 </file>
@@ -456,11 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +807,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>4.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82E00D2-2AB1-46DE-A07E-CE4B30C5602B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B4E62-89C4-4C71-9E66-A7952558521F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>2019.03.25</t>
+  </si>
+  <si>
+    <t>2019.03.28</t>
+  </si>
+  <si>
+    <t>Mathematical model for chord to step ratio</t>
   </si>
 </sst>
 </file>
@@ -459,18 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,6 +830,23 @@
         <v>33</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B4E62-89C4-4C71-9E66-A7952558521F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95966464-C502-40F8-A11D-7CDEBFD32F73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -148,6 +149,12 @@
   </si>
   <si>
     <t>Mathematical model for chord to step ratio</t>
+  </si>
+  <si>
+    <t>2019.03.31</t>
+  </si>
+  <si>
+    <t>Zweifel criterion</t>
   </si>
 </sst>
 </file>
@@ -465,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +854,24 @@
         <v>40</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="str">
+        <f>$C$16</f>
+        <v>#jupyter</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B4E62-89C4-4C71-9E66-A7952558521F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8004C9-C1FC-4B50-9D67-1CCF88D6E1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Mathematical model for chord to step ratio</t>
+  </si>
+  <si>
+    <t>2019.04.01</t>
   </si>
 </sst>
 </file>
@@ -465,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,6 +850,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8004C9-C1FC-4B50-9D67-1CCF88D6E1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E391D-B515-4F83-B51A-F298CC8ED905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>2019.04.01</t>
+  </si>
+  <si>
+    <t>2019.04.02</t>
+  </si>
+  <si>
+    <t>2019.04.03</t>
+  </si>
+  <si>
+    <t>Geometry optimization code</t>
+  </si>
+  <si>
+    <t>2019.04.07</t>
+  </si>
+  <si>
+    <t>#ansys</t>
+  </si>
+  <si>
+    <t>2019.04.05</t>
+  </si>
+  <si>
+    <t>Import points and prepare simulation</t>
   </si>
 </sst>
 </file>
@@ -468,11 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,6 +888,91 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E391D-B515-4F83-B51A-F298CC8ED905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80F45D-F055-464F-9688-76E3E7F30630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F80F45D-F055-464F-9688-76E3E7F30630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26589186-3545-451E-8842-7B2FACB36B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>Import points and prepare simulation</t>
+  </si>
+  <si>
+    <t>2019.04.09</t>
+  </si>
+  <si>
+    <t>Ansys Fluent simulation</t>
+  </si>
+  <si>
+    <t>2019.04.14</t>
+  </si>
+  <si>
+    <t>Added numerics to equation for better following</t>
   </si>
 </sst>
 </file>
@@ -489,18 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,7 +953,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -958,7 +970,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -971,6 +983,45 @@
       </c>
       <c r="E28" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Hours.xlsx
+++ b/docs/Hours.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26589186-3545-451E-8842-7B2FACB36B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9C723-1B79-42FA-A5F5-D845C0DECC64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>2019.02.19</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>Added numerics to equation for better following</t>
+  </si>
+  <si>
+    <t>2019.05.03</t>
+  </si>
+  <si>
+    <t>Added figures for optimization process</t>
+  </si>
+  <si>
+    <t>2019.05.05</t>
+  </si>
+  <si>
+    <t>Added figures for optimization process. Add code</t>
   </si>
 </sst>
 </file>
@@ -501,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,6 +1035,35 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
